--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W20_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W20_H100_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5342019543973942</v>
+        <v>0.5382165605095541</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8961748633879781</v>
+        <v>0.9234972677595629</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.5225225225225225</v>
       </c>
       <c r="F2" t="n">
-        <v>0.669387755102041</v>
+        <v>0.6800804828973843</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5255255255255256</v>
+        <v>0.4894894894894895</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1193986222846334</v>
+        <v>0.07061352564584857</v>
       </c>
       <c r="J2" t="n">
-        <v>1630.609474086941</v>
+        <v>914.2591783960822</v>
       </c>
       <c r="K2" t="n">
-        <v>4103992.792039427</v>
+        <v>1136208.663267945</v>
       </c>
       <c r="L2" t="n">
-        <v>2025.831382923916</v>
+        <v>1065.930890474587</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2369533545005788</v>
+        <v>0.7887471413751797</v>
       </c>
     </row>
   </sheetData>
